--- a/data/trans_bre/P16A05-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P16A05-Provincia-trans_bre.xlsx
@@ -539,7 +539,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que ha consumido tranquilizantes en las dos últimas semanas</t>
+          <t>Población que ha consumido medicamentos tranquilizantes en las dos últimas semanas</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_bre/P16A05-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P16A05-Provincia-trans_bre.xlsx
@@ -649,7 +649,7 @@
         <v>0.8773957392292417</v>
       </c>
       <c r="J4" s="6" t="n">
-        <v>0.3996319736675381</v>
+        <v>0.3996319736675378</v>
       </c>
     </row>
     <row r="5">
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>1.507265851555644</v>
+        <v>1.137410730456622</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-2.144591492144632</v>
+        <v>-2.025453846509701</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-0.4809495210318498</v>
+        <v>-0.1404029631447117</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-1.516418699700627</v>
+        <v>-1.271463772862082</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.2718470210587153</v>
+        <v>0.1990060434506637</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>-0.2528538488568559</v>
+        <v>-0.2824392464362615</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>-0.1725036038739581</v>
+        <v>-0.09755284763180393</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>-0.3995134412993802</v>
+        <v>-0.3644162459236885</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>8.238806009248995</v>
+        <v>8.502530348683742</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>7.161467901505497</v>
+        <v>7.302046793194177</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>6.822976549357892</v>
+        <v>7.3837494555433</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>3.017615558435186</v>
+        <v>3.234125457347925</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>7.332307040702022</v>
+        <v>7.96800717130823</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>1.896241466175393</v>
+        <v>1.873962115919261</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>3.129762082289563</v>
+        <v>3.231196197721227</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>2.181593464717695</v>
+        <v>2.119332288838943</v>
       </c>
     </row>
     <row r="7">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>1.742811142461101</v>
+        <v>1.677079303507123</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>1.560824250442712</v>
+        <v>1.679989576643572</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1.10491361622027</v>
+        <v>1.147706290130919</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.07573975552520476</v>
+        <v>0.2531499750024663</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.3448809599522501</v>
+        <v>0.4138753598397935</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.246423567050816</v>
+        <v>0.2929201358238483</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.2240954261811956</v>
+        <v>0.1690450890615156</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>0.008835526060737819</v>
+        <v>0.03032140851908599</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>6.748199297383947</v>
+        <v>7.049613383695191</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>8.200962116588636</v>
+        <v>8.276684903249505</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>6.982507691269898</v>
+        <v>6.775085068130105</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>6.44964003155581</v>
+        <v>6.311122475526103</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>4.389201955151481</v>
+        <v>5.188352599569156</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>3.638594136842381</v>
+        <v>3.74168109834382</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>3.316219228835392</v>
+        <v>3.037930857211351</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>1.49003527880348</v>
+        <v>1.508379001819</v>
       </c>
     </row>
     <row r="10">
@@ -860,26 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-3.489699865848297</v>
+        <v>-3.598994494365582</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-4.960499314872049</v>
+        <v>-4.388174224927887</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-0.27746866343562</v>
+        <v>-0.2849838317784741</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-0.1462058785598024</v>
-      </c>
-      <c r="G11" s="6" t="inlineStr"/>
+        <v>-0.03705202612285883</v>
+      </c>
+      <c r="G11" s="6" t="n">
+        <v>-1</v>
+      </c>
       <c r="H11" s="6" t="n">
-        <v>-0.8040522266732715</v>
+        <v>-0.7762714390999389</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>-0.1360555637560184</v>
+        <v>-0.1581807003250348</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>-0.05042590541023478</v>
+        <v>-0.05663729280627899</v>
       </c>
     </row>
     <row r="12">
@@ -890,26 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>-0.3165049065717989</v>
+        <v>-0.3244599875277931</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>1.134572311904433</v>
+        <v>1.251950156406744</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>5.978340512741381</v>
+        <v>5.660189008850657</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>5.952269330748656</v>
-      </c>
-      <c r="G12" s="6" t="inlineStr"/>
+        <v>6.0817971235353</v>
+      </c>
+      <c r="G12" s="6" t="n">
+        <v>0.7107162349276088</v>
+      </c>
       <c r="H12" s="6" t="n">
-        <v>0.6625180534193943</v>
+        <v>0.7384351622524323</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>3.452394735424508</v>
+        <v>3.015482722984018</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>1.990573169549002</v>
+        <v>1.997500257510777</v>
       </c>
     </row>
     <row r="13">
@@ -956,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.4956962242867547</v>
+        <v>0.4409775854381268</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>3.985388869296812</v>
+        <v>4.63754941734855</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.603859582100653</v>
+        <v>0.5996021574966552</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>-1.028167614735823</v>
+        <v>-0.8561933087548623</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.1446548948918659</v>
+        <v>-0.1162508130675429</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8908052265410663</v>
+        <v>1.028011756545639</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.02549104774568044</v>
+        <v>0.0626721221910896</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.3495768952252425</v>
+        <v>-0.3149783754494639</v>
       </c>
     </row>
     <row r="15">
@@ -988,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>4.904333780029062</v>
+        <v>4.956686519040744</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>11.54551908491276</v>
+        <v>11.72305921141831</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>7.788058890823296</v>
+        <v>7.759976048107086</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>3.739100168426591</v>
+        <v>4.133523985091752</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>9.682171667351771</v>
+        <v>9.018827737337592</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>9.765458674670718</v>
+        <v>10.26406968056712</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>2.660525400512374</v>
+        <v>2.736112672968939</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>3.685861562510301</v>
+        <v>3.855365195075218</v>
       </c>
     </row>
     <row r="16">
@@ -1056,28 +1060,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.001608139218543734</v>
+        <v>0.07923083771751374</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>6.468822375077152</v>
+        <v>6.196268364438708</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3.66337798184451</v>
+        <v>3.256021441955528</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>4.522131868123493</v>
+        <v>4.805061221550886</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>-0.1768859137493992</v>
+        <v>-0.1207008130901036</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9105245405935933</v>
+        <v>0.8083508938185721</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.5235256456167073</v>
+        <v>0.3757247699113537</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>0.9662393685590005</v>
+        <v>1.128437096274302</v>
       </c>
     </row>
     <row r="18">
@@ -1088,28 +1092,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>7.365111302818725</v>
+        <v>7.965802503237208</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>17.94873949028542</v>
+        <v>17.02469141588208</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>13.87860747023315</v>
+        <v>14.00533107535443</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>10.72122896500791</v>
+        <v>10.47539704567191</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>7.917374771498311</v>
+        <v>10.00466145712805</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>8.241897899756474</v>
+        <v>8.191704683516555</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>5.141797108532</v>
+        <v>5.299052515217446</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>8.489329628625242</v>
+        <v>8.057822131819053</v>
       </c>
     </row>
     <row r="19">
@@ -1133,7 +1137,7 @@
         <v>2.147583284355115</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>5.664812568135949</v>
+        <v>5.664812568135946</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>3.715270954728904</v>
@@ -1145,7 +1149,7 @@
         <v>0.6796726222262303</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>1.125662530714655</v>
+        <v>1.125662530714654</v>
       </c>
     </row>
     <row r="20">
@@ -1156,28 +1160,28 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.6196610458239981</v>
+        <v>0.4244589335521375</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>-0.3346940646904598</v>
+        <v>-0.2629272055571297</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>-1.381437420700647</v>
+        <v>-1.244818239185345</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>2.502305925561405</v>
+        <v>2.089740423372522</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.3870347910885198</v>
+        <v>-0.1268132401615259</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.1649390811384322</v>
+        <v>-0.1315377729835025</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.3756086230929813</v>
+        <v>-0.3596158550666842</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>0.3716267574180758</v>
+        <v>0.2628397248295814</v>
       </c>
     </row>
     <row r="21">
@@ -1188,26 +1192,26 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>5.486941593819648</v>
+        <v>4.936591756256424</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>6.705411440157421</v>
+        <v>6.188108124631007</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>5.723346366396227</v>
+        <v>5.810309805918824</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>9.022447939144692</v>
+        <v>9.077845141300338</v>
       </c>
       <c r="G21" s="6" t="inlineStr"/>
       <c r="H21" s="6" t="n">
-        <v>5.260170750592478</v>
+        <v>5.192593544778514</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>3.095287840747823</v>
+        <v>3.367728409755055</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>2.573872022404838</v>
+        <v>2.554684869576087</v>
       </c>
     </row>
     <row r="22">
@@ -1254,28 +1258,28 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.4562803103061719</v>
+        <v>0.3113425119030527</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-1.236562023937865</v>
+        <v>-1.087443221826968</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>1.06856573644677</v>
+        <v>0.8535415348461624</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>2.846220184814407</v>
+        <v>2.731057848852069</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.07946626106786149</v>
+        <v>0.03126402771390364</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>-0.3255533204253763</v>
+        <v>-0.272295636670326</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.2120889461538161</v>
+        <v>0.1354805106257529</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>0.532452098670474</v>
+        <v>0.546088365262909</v>
       </c>
     </row>
     <row r="24">
@@ -1286,28 +1290,28 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>4.849632540230131</v>
+        <v>4.634691896940924</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>3.244786585278123</v>
+        <v>3.268840796657196</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>6.271792540693378</v>
+        <v>6.37120205054832</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>7.547683735661337</v>
+        <v>7.57048810090069</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>2.647990284722876</v>
+        <v>2.692549464244689</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>1.550764556352579</v>
+        <v>1.554865343427613</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>2.594543320544646</v>
+        <v>2.458995442962448</v>
       </c>
       <c r="J24" s="6" t="n">
-        <v>2.747765313352707</v>
+        <v>2.711728082875134</v>
       </c>
     </row>
     <row r="25">
@@ -1331,7 +1335,7 @@
         <v>5.148802456097779</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>5.122474806749964</v>
+        <v>5.122474806749966</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.7091869639479247</v>
@@ -1343,7 +1347,7 @@
         <v>1.591625916866739</v>
       </c>
       <c r="J25" s="6" t="n">
-        <v>0.9948428309035313</v>
+        <v>0.9948428309035315</v>
       </c>
     </row>
     <row r="26">
@@ -1354,28 +1358,28 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.6207284591986579</v>
+        <v>0.7197758013976912</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>2.135874318562583</v>
+        <v>2.346023828422926</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>2.988858777951297</v>
+        <v>2.836231188490784</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>2.565096465696024</v>
+        <v>2.673489584482944</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.09351658539610465</v>
+        <v>0.1092783965211417</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.5026070345377012</v>
+        <v>0.5513175177495101</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.641925119235997</v>
+        <v>0.6172469414296088</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>0.3993796619092366</v>
+        <v>0.4055671593814371</v>
       </c>
     </row>
     <row r="27">
@@ -1386,28 +1390,28 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>5.568415939652817</v>
+        <v>5.66331893733269</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>6.608658004402105</v>
+        <v>6.714309738248541</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>7.666161591011346</v>
+        <v>7.680743920935464</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>7.444936966171432</v>
+        <v>7.360552759681871</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>1.585288748390387</v>
+        <v>1.565562292085142</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>3.490821439250957</v>
+        <v>3.647078269930218</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>3.204999447067198</v>
+        <v>3.197376928404668</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>1.836182523569245</v>
+        <v>1.762304793508116</v>
       </c>
     </row>
     <row r="28">
@@ -1431,7 +1435,7 @@
         <v>4.154661994065215</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>4.156656878102508</v>
+        <v>4.156656878102505</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>1.065140725873233</v>
@@ -1443,7 +1447,7 @@
         <v>1.193449409625744</v>
       </c>
       <c r="J28" s="6" t="n">
-        <v>0.9756906307278709</v>
+        <v>0.9756906307278705</v>
       </c>
     </row>
     <row r="29">
@@ -1454,28 +1458,28 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>1.807313727424075</v>
+        <v>1.721029970504768</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>2.706741243887876</v>
+        <v>2.627239253978823</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>3.040328117700129</v>
+        <v>3.043760138922582</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>3.073443312244053</v>
+        <v>3.227932296635751</v>
       </c>
       <c r="G29" s="6" t="n">
-        <v>0.577277641997617</v>
+        <v>0.5739642525917306</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.670379700139957</v>
+        <v>0.644586805955855</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.7635247494268453</v>
+        <v>0.7740481259428803</v>
       </c>
       <c r="J29" s="6" t="n">
-        <v>0.6317549387052059</v>
+        <v>0.6644920788394101</v>
       </c>
     </row>
     <row r="30">
@@ -1486,28 +1490,28 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>3.700278503334968</v>
+        <v>3.664700605021114</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>4.926027917135909</v>
+        <v>4.962389210967966</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>5.254336593976269</v>
+        <v>5.268577326546982</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>5.079570758534027</v>
+        <v>5.211794076607769</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>1.647338348732777</v>
+        <v>1.662175201712726</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>1.712798041391111</v>
+        <v>1.746616182366771</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>1.736983286286212</v>
+        <v>1.731223294433643</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>1.323802357727107</v>
+        <v>1.386162305954521</v>
       </c>
     </row>
     <row r="31">
